--- a/Tos.FoodProcs.Web/templates/hinmeiMasterIchiran_pattern7_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/hinmeiMasterIchiran_pattern7_vi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\FPL_VN版\src_code\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,51 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>V/W</t>
-  </si>
-  <si>
-    <t>Receiving location</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Order lot size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Storage type 
-after thawing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Danh sách master sản phẩm</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm　　　    :</t>
-  </si>
-  <si>
-    <t>Nhóm sản phẩm 　    　:</t>
-  </si>
-  <si>
-    <t>Kiểu bảo quản               :</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm　        　:</t>
-  </si>
-  <si>
-    <t>Hiển thị không sử dụng :</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất                :</t>
-  </si>
-  <si>
-    <t>Ngày xuất               　　:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Mã</t>
   </si>
@@ -80,18 +36,7 @@
     <t>Tên sản phẩm (rút gọn)</t>
   </si>
   <si>
-    <t>Loại 
-sản phẩm</t>
-  </si>
-  <si>
-    <t>Lượng trong quy cách đóng gói</t>
-  </si>
-  <si>
     <t>Số lượng bên trong</t>
-  </si>
-  <si>
-    <t>Trọng lượng
-1 cái</t>
   </si>
   <si>
     <t>Đơn vị nhập</t>
@@ -107,9 +52,6 @@
     <t>Đơn giá</t>
   </si>
   <si>
-    <t>Nhóm sản phẩm</t>
-  </si>
-  <si>
     <t>Hạn sử dụng (ngày)</t>
   </si>
   <si>
@@ -117,16 +59,6 @@
 sau khi mở (ngày)</t>
   </si>
   <si>
-    <t>Kiểu bảo quản</t>
-  </si>
-  <si>
-    <t>Kiểu bảo quản
-sau khi mở</t>
-  </si>
-  <si>
-    <t>Condition div</t>
-  </si>
-  <si>
     <t>Tỉ lệ
 sử dụng</t>
   </si>
@@ -146,19 +78,78 @@
     <t>Không sử dụng</t>
   </si>
   <si>
-    <t>Expiry date 
-after thawing(day)</t>
-  </si>
-  <si>
-    <t>Warehouse location name</t>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Phân loại nhóm</t>
+  </si>
+  <si>
+    <t>Điều kiện bảo quản</t>
+  </si>
+  <si>
+    <t>Hiển thị không sử dụng</t>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Danh sách master nguyên vật liệu</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Tổng trọng lượng
+theo quy cách đóng gói</t>
+  </si>
+  <si>
+    <t>Trọng lượng 1 cái</t>
+  </si>
+  <si>
+    <t>Đơn vị
+trọng lượng</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng
+sau khi rã đông (ngày)</t>
+  </si>
+  <si>
+    <t>ĐK bảo quản</t>
+  </si>
+  <si>
+    <t>ĐK bảo quản 
+sau khi mở</t>
+  </si>
+  <si>
+    <t>ĐK bảo quản
+sau khi rã đông</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Nơi nhận hàng</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Kho xuất</t>
+  </si>
+  <si>
+    <t>Cỡ lô đặt hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="@* \:"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -270,7 +261,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -362,6 +353,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -675,12 +670,12 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="36.109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="39.88671875" style="19" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" style="19" customWidth="1"/>
@@ -712,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="4"/>
@@ -725,8 +720,8 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -738,8 +733,8 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -751,8 +746,8 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
+      <c r="A4" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="8"/>
       <c r="E4" s="4"/>
@@ -765,8 +760,8 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="8"/>
       <c r="E5" s="4"/>
@@ -779,8 +774,8 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="8"/>
       <c r="E6" s="4"/>
@@ -804,8 +799,8 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
+      <c r="A8" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="4"/>
@@ -818,8 +813,8 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
+      <c r="A9" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="9"/>
       <c r="E9" s="4"/>
@@ -866,97 +861,97 @@
     </row>
     <row r="11" spans="1:31" s="11" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="Y11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="AA11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="AB11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="15" t="s">
+      <c r="AC11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
